--- a/doc/10.03.2013 Meeting/Res.xlsx
+++ b/doc/10.03.2013 Meeting/Res.xlsx
@@ -501,28 +501,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -822,7 +801,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="J41" sqref="A1:J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1151,28 +1130,28 @@
       <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>0.153</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="47">
         <v>0.158</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="31">
         <v>0.1113</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="12">
         <v>0.12089999999999999</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="23">
         <v>8.6199999999999999E-2</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="47">
         <v>9.2700000000000005E-2</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="31">
         <v>0.13919999999999999</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J12" s="47">
         <v>0.1457</v>
       </c>
     </row>
@@ -1531,28 +1510,28 @@
       <c r="B25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="13">
         <v>0.27639999999999998</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="47">
         <v>0.28320000000000001</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="13">
         <v>0.29620000000000002</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="12">
         <v>0.31159999999999999</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="26">
         <v>0.37559999999999999</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="47">
         <v>0.42870000000000003</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="13">
         <v>0.30280000000000001</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J25" s="12">
         <v>0.32729999999999998</v>
       </c>
     </row>
@@ -1911,28 +1890,28 @@
       <c r="B38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="3">
         <v>0.25069999999999998</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D38" s="47">
         <v>0.25409999999999999</v>
       </c>
-      <c r="E38" s="39">
+      <c r="E38" s="46">
         <v>0.25169999999999998</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38" s="38">
         <v>0.2021</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="29">
         <v>0.31019999999999998</v>
       </c>
-      <c r="H38" s="22">
+      <c r="H38" s="47">
         <v>0.34749999999999998</v>
       </c>
-      <c r="I38" s="10">
+      <c r="I38" s="39">
         <v>0.3085</v>
       </c>
-      <c r="J38" s="38">
+      <c r="J38" s="49">
         <v>0.31840000000000002</v>
       </c>
     </row>

--- a/doc/10.03.2013 Meeting/Res.xlsx
+++ b/doc/10.03.2013 Meeting/Res.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="rank" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
   <si>
     <t>test1</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>schedue3</t>
+  </si>
+  <si>
+    <t>train1a</t>
+  </si>
+  <si>
+    <t>train2</t>
+  </si>
+  <si>
+    <t>train3</t>
   </si>
 </sst>
 </file>
@@ -800,7 +809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J41" sqref="A1:J41"/>
     </sheetView>
   </sheetViews>
@@ -2010,12 +2019,1650 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="M78" sqref="M78"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2">
+        <v>6366</v>
+      </c>
+      <c r="C2">
+        <v>7164</v>
+      </c>
+      <c r="D2">
+        <v>8793</v>
+      </c>
+      <c r="E2">
+        <v>3643</v>
+      </c>
+      <c r="F2">
+        <v>10978</v>
+      </c>
+      <c r="G2">
+        <v>5571</v>
+      </c>
+      <c r="H2">
+        <v>5723</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2014</v>
+      </c>
+      <c r="C3">
+        <v>2085</v>
+      </c>
+      <c r="D3">
+        <v>1381</v>
+      </c>
+      <c r="E3">
+        <v>316</v>
+      </c>
+      <c r="F3">
+        <v>160</v>
+      </c>
+      <c r="G3">
+        <v>1507</v>
+      </c>
+      <c r="H3">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1449</v>
+      </c>
+      <c r="C4">
+        <v>1332</v>
+      </c>
+      <c r="D4">
+        <v>2431</v>
+      </c>
+      <c r="E4">
+        <v>661</v>
+      </c>
+      <c r="F4">
+        <v>3093</v>
+      </c>
+      <c r="G4">
+        <v>1706</v>
+      </c>
+      <c r="H4">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>72</v>
+      </c>
+      <c r="C5">
+        <v>73</v>
+      </c>
+      <c r="D5">
+        <v>266</v>
+      </c>
+      <c r="E5">
+        <v>94</v>
+      </c>
+      <c r="F5">
+        <v>297</v>
+      </c>
+      <c r="G5">
+        <v>236</v>
+      </c>
+      <c r="H5">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <v>121</v>
+      </c>
+      <c r="E6">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>80</v>
+      </c>
+      <c r="G6">
+        <v>93</v>
+      </c>
+      <c r="H6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>70</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>38</v>
+      </c>
+      <c r="G7">
+        <v>42</v>
+      </c>
+      <c r="H7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>45</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>17</v>
+      </c>
+      <c r="G8">
+        <v>26</v>
+      </c>
+      <c r="H8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>37</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>11</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>7</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>4</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/doc/10.03.2013 Meeting/Res.xlsx
+++ b/doc/10.03.2013 Meeting/Res.xlsx
@@ -518,6 +518,932 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>rank!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>rank!$B$2:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>6366</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1449</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>rank!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>rank!$C$2:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>7164</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2085</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>rank!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>rank!$D$2:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>8793</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1381</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2431</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>rank!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>rank!$E$2:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>3643</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>661</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>rank!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>train1a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>rank!$F$2:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>10978</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3093</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>rank!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>train2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>rank!$G$2:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>5571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1507</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1706</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>rank!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>train3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>rank!$H$2:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>5723</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1756</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="146769792"/>
+        <c:axId val="138969856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="146769792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="138969856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="138969856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="146769792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2021,1649 +2947,1654 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="M78" sqref="M78"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>-1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>6366</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>7164</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>8793</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>3643</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>10978</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>5571</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>5723</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
         <v>2014</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>2085</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>1381</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>316</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>160</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>1507</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>875</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
         <v>1449</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>1332</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>2431</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>661</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>3093</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>1706</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>1756</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
         <v>72</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>73</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>266</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>94</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>297</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>236</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>34</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>28</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>121</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>22</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>80</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>93</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>21</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>16</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>70</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>9</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>38</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>42</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>19</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>17</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>45</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>4</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>17</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>26</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>16</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>10</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>37</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
         <v>15</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>14</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>7</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>12</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>24</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>3</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>10</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>12</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>9</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>7</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>13</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
         <v>11</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>11</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>5</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>15</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>8</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
         <v>12</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>7</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>5</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>3</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>11</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
         <v>12</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>6</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>4</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>4</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>10</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
         <v>8</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>3</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>7</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>4</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>7</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
         <v>11</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>9</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>3</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>7</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>8</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16">
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1">
         <v>3</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
         <v>4</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
         <v>3</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>3</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>3</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>7</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>5</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1">
         <v>5</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>4</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>6</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>3</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
         <v>8</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>4</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>7</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>3</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
         <v>3</v>
       </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20">
+      <c r="G20" s="1">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-      <c r="H21">
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2</v>
+      </c>
+      <c r="H21" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
         <v>3</v>
       </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
         <v>7</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>3</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
         <v>3</v>
       </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>21</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="G24">
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="G24" s="1">
         <v>6</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
         <v>4</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <v>4</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
         <v>4</v>
       </c>
-      <c r="G26">
-        <v>2</v>
-      </c>
-      <c r="H26">
+      <c r="G26" s="1">
+        <v>2</v>
+      </c>
+      <c r="H26" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>2</v>
-      </c>
-      <c r="H27">
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2</v>
+      </c>
+      <c r="H27" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28">
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
         <v>3</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>26</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
         <v>6</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="1">
         <v>3</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>27</v>
       </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30">
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1">
         <v>3</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
         <v>6</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>28</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
         <v>4</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="1">
         <v>3</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>29</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>30</v>
       </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
         <v>3</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>31</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>2</v>
-      </c>
-      <c r="G34">
-        <v>2</v>
-      </c>
-      <c r="H34">
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2</v>
+      </c>
+      <c r="G34" s="1">
+        <v>2</v>
+      </c>
+      <c r="H34" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>32</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>2</v>
-      </c>
-      <c r="H35">
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>2</v>
+      </c>
+      <c r="H35" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>33</v>
       </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>2</v>
-      </c>
-      <c r="H36">
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>2</v>
+      </c>
+      <c r="H36" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>34</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
         <v>5</v>
       </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37">
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>35</v>
       </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>2</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
         <v>3</v>
       </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38">
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>36</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>2</v>
-      </c>
-      <c r="H39">
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>2</v>
+      </c>
+      <c r="H39" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>37</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
         <v>3</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="1">
         <v>3</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>38</v>
       </c>
-      <c r="B41">
-        <v>2</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>2</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
+      <c r="B41" s="1">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>2</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>39</v>
       </c>
-      <c r="B42">
-        <v>2</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
+      <c r="B42" s="1">
+        <v>2</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
         <v>3</v>
       </c>
-      <c r="G42">
-        <v>2</v>
-      </c>
-      <c r="H42">
+      <c r="G42" s="1">
+        <v>2</v>
+      </c>
+      <c r="H42" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>40</v>
       </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>2</v>
-      </c>
-      <c r="H43">
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>2</v>
+      </c>
+      <c r="H43" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>41</v>
       </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
         <v>4</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="1">
         <v>3</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>42</v>
       </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>2</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45">
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+      <c r="H45" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>43</v>
       </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46">
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1">
         <v>3</v>
       </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
         <v>3</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>44</v>
       </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
         <v>4</v>
       </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>45</v>
       </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>46</v>
       </c>
-      <c r="B49">
-        <v>2</v>
-      </c>
-      <c r="C49">
-        <v>2</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
+      <c r="B49" s="1">
+        <v>2</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>47</v>
       </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>48</v>
       </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51">
+      <c r="B51" s="1">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1</v>
+      </c>
+      <c r="H51" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>49</v>
       </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="1">
         <v>50</v>
       </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>2</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
+      <c r="B53" s="1">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="1">
         <v>51</v>
       </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="H54">
+      <c r="B54" s="1">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1</v>
+      </c>
+      <c r="H54" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="1">
         <v>52</v>
       </c>
-      <c r="B55">
-        <v>2</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55">
-        <v>2</v>
-      </c>
-      <c r="H55">
+      <c r="B55" s="1">
+        <v>2</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1">
+        <v>2</v>
+      </c>
+      <c r="H55" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="1">
         <v>53</v>
       </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56">
-        <v>2</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
+      <c r="B56" s="1">
+        <v>0</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="1">
         <v>54</v>
       </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="1">
         <v>55</v>
       </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="H58">
+      <c r="B58" s="1">
+        <v>0</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1</v>
+      </c>
+      <c r="H58" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="1">
         <v>56</v>
       </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="C59">
-        <v>2</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
+      <c r="B59" s="1">
+        <v>0</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="1">
         <v>57</v>
       </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
+      <c r="B60" s="1">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
         <v>4</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="1">
         <v>58</v>
       </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>2</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="H61">
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <v>2</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1</v>
+      </c>
+      <c r="H61" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="1">
         <v>59</v>
       </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>2</v>
-      </c>
-      <c r="G62">
-        <v>2</v>
-      </c>
-      <c r="H62">
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>2</v>
+      </c>
+      <c r="G62" s="1">
+        <v>2</v>
+      </c>
+      <c r="H62" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="1">
         <v>60</v>
       </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>2</v>
-      </c>
-      <c r="H63">
+      <c r="B63" s="1">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1">
+        <v>2</v>
+      </c>
+      <c r="H63" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/doc/10.03.2013 Meeting/Res.xlsx
+++ b/doc/10.03.2013 Meeting/Res.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="non-history VS baseline" sheetId="1" r:id="rId1"/>
@@ -7699,11 +7699,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="146587008"/>
-        <c:axId val="146597376"/>
+        <c:axId val="85232640"/>
+        <c:axId val="85243008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146587008"/>
+        <c:axId val="85232640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7731,7 +7731,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146597376"/>
+        <c:crossAx val="85243008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7740,7 +7740,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146597376"/>
+        <c:axId val="85243008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7769,7 +7769,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146587008"/>
+        <c:crossAx val="85232640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7939,7 +7939,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Topline!$F$1</c:f>
+              <c:f>TopLine_all!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7999,39 +7999,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Topline!$F$2:$F$11</c:f>
+              <c:f>TopLine_all!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.52810000000000001</c:v>
+                  <c:v>0.81620000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64329999999999998</c:v>
+                  <c:v>0.94820000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.69579999999999997</c:v>
+                  <c:v>0.98499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.73160000000000003</c:v>
+                  <c:v>0.98760000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.75549999999999995</c:v>
+                  <c:v>0.98899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.77249999999999996</c:v>
+                  <c:v>0.9899</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.78669999999999995</c:v>
+                  <c:v>0.99070000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.80059999999999998</c:v>
+                  <c:v>0.99119999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.81200000000000006</c:v>
+                  <c:v>0.99139999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.82230000000000003</c:v>
+                  <c:v>0.99170000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8148,7 +8148,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Topline!$G$1</c:f>
+              <c:f>TopLine_all!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8208,39 +8208,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Topline!$G$2:$G$11</c:f>
+              <c:f>TopLine_all!$G$2:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.65769999999999995</c:v>
+                  <c:v>0.79710000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.70640000000000003</c:v>
+                  <c:v>0.96389999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.73440000000000005</c:v>
+                  <c:v>0.9919</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75490000000000002</c:v>
+                  <c:v>0.99380000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.77</c:v>
+                  <c:v>0.99470000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.78369999999999995</c:v>
+                  <c:v>0.99490000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.79510000000000003</c:v>
+                  <c:v>0.99550000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.80720000000000003</c:v>
+                  <c:v>0.99570000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.81979999999999997</c:v>
+                  <c:v>0.99619999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.82940000000000003</c:v>
+                  <c:v>0.99629999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8354,7 +8354,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Topline!$H$1</c:f>
+              <c:f>TopLine_all!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8414,39 +8414,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Topline!$H$2:$H$11</c:f>
+              <c:f>TopLine_all!$H$2:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.83440000000000003</c:v>
+                  <c:v>0.77200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94810000000000005</c:v>
+                  <c:v>0.87280000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96530000000000005</c:v>
+                  <c:v>0.98870000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97309999999999997</c:v>
+                  <c:v>0.99339999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97760000000000002</c:v>
+                  <c:v>0.996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.98119999999999996</c:v>
+                  <c:v>0.997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98409999999999997</c:v>
+                  <c:v>0.99739999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.98580000000000001</c:v>
+                  <c:v>0.998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.98709999999999998</c:v>
+                  <c:v>0.99850000000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.9889</c:v>
+                  <c:v>0.99860000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8563,7 +8563,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Topline!$I$1</c:f>
+              <c:f>TopLine_all!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8623,39 +8623,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Topline!$I$2:$I$11</c:f>
+              <c:f>TopLine_all!$I$2:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.81979999999999997</c:v>
+                  <c:v>0.84340000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92210000000000003</c:v>
+                  <c:v>0.89149999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94159999999999999</c:v>
+                  <c:v>0.98350000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9556</c:v>
+                  <c:v>0.99350000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96399999999999997</c:v>
+                  <c:v>0.99509999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.96989999999999998</c:v>
+                  <c:v>0.996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97640000000000005</c:v>
+                  <c:v>0.99629999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.98089999999999999</c:v>
+                  <c:v>0.99629999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.98319999999999996</c:v>
+                  <c:v>0.99639999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.98580000000000001</c:v>
+                  <c:v>0.99639999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8672,11 +8672,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="146694144"/>
-        <c:axId val="146696064"/>
+        <c:axId val="84942208"/>
+        <c:axId val="84956672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146694144"/>
+        <c:axId val="84942208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8705,7 +8705,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146696064"/>
+        <c:crossAx val="84956672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8713,11 +8713,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146696064"/>
+        <c:axId val="84956672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
-          <c:min val="0.4"/>
+          <c:min val="0.70000000000000007"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8745,7 +8745,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146694144"/>
+        <c:crossAx val="84942208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8922,7 +8922,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Topline!$F$1</c:f>
+              <c:f>TopLine_all!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8982,39 +8982,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Topline!$F$12:$F$21</c:f>
+              <c:f>TopLine_all!$F$12:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.2084</c:v>
+                  <c:v>0.7056</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34289999999999998</c:v>
+                  <c:v>0.88100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.41310000000000002</c:v>
+                  <c:v>0.97070000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4657</c:v>
+                  <c:v>0.97599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.50380000000000003</c:v>
+                  <c:v>0.97899999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.53410000000000002</c:v>
+                  <c:v>0.98099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.55930000000000002</c:v>
+                  <c:v>0.98250000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.58479999999999999</c:v>
+                  <c:v>0.98319999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.60599999999999998</c:v>
+                  <c:v>0.98380000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.62619999999999998</c:v>
+                  <c:v>0.98470000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9131,7 +9131,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Topline!$G$1</c:f>
+              <c:f>TopLine_all!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9191,39 +9191,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Topline!$G$12:$G$21</c:f>
+              <c:f>TopLine_all!$G$12:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.16320000000000001</c:v>
+                  <c:v>0.52669999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25629999999999997</c:v>
+                  <c:v>0.88349999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.31190000000000001</c:v>
+                  <c:v>0.97430000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.36070000000000002</c:v>
+                  <c:v>0.97919999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.39750000000000002</c:v>
+                  <c:v>0.98240000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.43030000000000002</c:v>
+                  <c:v>0.98319999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.45789999999999997</c:v>
+                  <c:v>0.98480000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.48620000000000002</c:v>
+                  <c:v>0.98529999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.51549999999999996</c:v>
+                  <c:v>0.98709999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.53910000000000002</c:v>
+                  <c:v>0.98750000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9340,7 +9340,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Topline!$H$1</c:f>
+              <c:f>TopLine_all!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9400,39 +9400,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Topline!$H$12:$H$21</c:f>
+              <c:f>TopLine_all!$H$12:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.41520000000000001</c:v>
+                  <c:v>0.25900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77039999999999997</c:v>
+                  <c:v>0.44650000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83699999999999997</c:v>
+                  <c:v>0.91310000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.86639999999999995</c:v>
+                  <c:v>0.94579999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88449999999999995</c:v>
+                  <c:v>0.96540000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.89810000000000001</c:v>
+                  <c:v>0.97330000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.91349999999999998</c:v>
+                  <c:v>0.97729999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92300000000000004</c:v>
+                  <c:v>0.98229999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.93</c:v>
+                  <c:v>0.98570000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.93679999999999997</c:v>
+                  <c:v>0.98650000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9549,7 +9549,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Topline!$I$1</c:f>
+              <c:f>TopLine_all!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9609,39 +9609,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Topline!$I$12:$I$21</c:f>
+              <c:f>TopLine_all!$I$12:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.59160000000000001</c:v>
+                  <c:v>0.65849999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.80079999999999996</c:v>
+                  <c:v>0.77790000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85189999999999999</c:v>
+                  <c:v>0.96050000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88800000000000001</c:v>
+                  <c:v>0.98260000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.90900000000000003</c:v>
+                  <c:v>0.98640000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92449999999999999</c:v>
+                  <c:v>0.98919999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94199999999999995</c:v>
+                  <c:v>0.99019999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.9536</c:v>
+                  <c:v>0.99019999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.96030000000000004</c:v>
+                  <c:v>0.9909</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.96560000000000001</c:v>
+                  <c:v>0.9909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9754,112 +9754,8 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]Topline!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>test1-topline</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="002060"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>TopLine_all!$B$2:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Topline!$F$12:$F$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.2084</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.34289999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.41310000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4657</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.50380000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.53410000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.55930000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.58479999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.60599999999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.62619999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="10"/>
           <c:tx>
             <c:strRef>
               <c:f>[1]Topline!$K$1</c:f>
@@ -9963,112 +9859,8 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]Topline!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>test2-topline</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>TopLine_all!$B$2:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Topline!$G$12:$G$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.16320000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25629999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.31190000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.36070000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.39750000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.43030000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.45789999999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.48620000000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.51549999999999996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.53910000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
           <c:idx val="6"/>
-          <c:order val="12"/>
+          <c:order val="10"/>
           <c:tx>
             <c:strRef>
               <c:f>[1]Topline!$L$1</c:f>
@@ -10172,112 +9964,8 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="13"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]Topline!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>test3-topline</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>TopLine_all!$B$2:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Topline!$H$12:$H$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.41520000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.77039999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.83699999999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.86639999999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.88449999999999995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.89810000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.91349999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.92300000000000004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.93</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.93679999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
           <c:idx val="7"/>
-          <c:order val="14"/>
+          <c:order val="11"/>
           <c:tx>
             <c:strRef>
               <c:f>[1]Topline!$M$1</c:f>
@@ -10380,110 +10068,6 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="15"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]Topline!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>test4-topline</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>TopLine_all!$B$2:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Topline!$I$12:$I$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.59160000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.80079999999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.85189999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.88800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.90900000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.92449999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.94199999999999995</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.9536</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.96030000000000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.96560000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -10494,11 +10078,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="146643200"/>
-        <c:axId val="146649472"/>
+        <c:axId val="87070592"/>
+        <c:axId val="87080960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146643200"/>
+        <c:axId val="87070592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10527,7 +10111,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146649472"/>
+        <c:crossAx val="87080960"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10535,9 +10119,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146649472"/>
+        <c:axId val="87080960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -10565,7 +10150,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146643200"/>
+        <c:crossAx val="87070592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10578,6 +10163,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="8"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="9"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="10"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="11"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -10742,7 +10343,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Topline!$F$1</c:f>
+              <c:f>TopLine_all!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10802,39 +10403,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Topline!$F$22:$F$31</c:f>
+              <c:f>TopLine_all!$F$22:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.26850000000000002</c:v>
+                  <c:v>0.62549999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44140000000000001</c:v>
+                  <c:v>0.94379999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.51259999999999994</c:v>
+                  <c:v>0.97770000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.56089999999999995</c:v>
+                  <c:v>0.98060000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.59419999999999995</c:v>
+                  <c:v>0.98219999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.61719999999999997</c:v>
+                  <c:v>0.98340000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.63870000000000005</c:v>
+                  <c:v>0.98440000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.65610000000000002</c:v>
+                  <c:v>0.98509999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.67410000000000003</c:v>
+                  <c:v>0.98529999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.69089999999999996</c:v>
+                  <c:v>0.98580000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10951,7 +10552,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Topline!$G$1</c:f>
+              <c:f>TopLine_all!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11011,39 +10612,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Topline!$G$22:$G$31</c:f>
+              <c:f>TopLine_all!$G$22:$G$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.21929999999999999</c:v>
+                  <c:v>0.47899999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32719999999999999</c:v>
+                  <c:v>0.94240000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38800000000000001</c:v>
+                  <c:v>0.98809999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.43469999999999998</c:v>
+                  <c:v>0.99009999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.46970000000000001</c:v>
+                  <c:v>0.99170000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.50180000000000002</c:v>
+                  <c:v>0.99239999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.52890000000000004</c:v>
+                  <c:v>0.99399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.55940000000000001</c:v>
+                  <c:v>0.99470000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.59009999999999996</c:v>
+                  <c:v>0.99570000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.61399999999999999</c:v>
+                  <c:v>0.99570000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11160,7 +10761,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Topline!$H$1</c:f>
+              <c:f>TopLine_all!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11220,39 +10821,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Topline!$H$22:$H$31</c:f>
+              <c:f>TopLine_all!$H$22:$H$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.38030000000000003</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.81950000000000001</c:v>
+                  <c:v>0.49709999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.87739999999999996</c:v>
+                  <c:v>0.96879999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9012</c:v>
+                  <c:v>0.98229999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91569999999999996</c:v>
+                  <c:v>0.98970000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92820000000000003</c:v>
+                  <c:v>0.9929</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.93979999999999997</c:v>
+                  <c:v>0.99419999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94630000000000003</c:v>
+                  <c:v>0.99550000000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.95140000000000002</c:v>
+                  <c:v>0.99650000000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.95750000000000002</c:v>
+                  <c:v>0.99650000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11369,7 +10970,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Topline!$I$1</c:f>
+              <c:f>TopLine_all!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11429,39 +11030,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Topline!$I$22:$I$31</c:f>
+              <c:f>TopLine_all!$I$22:$I$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.61339999999999995</c:v>
+                  <c:v>0.62339999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.84079999999999999</c:v>
+                  <c:v>0.73699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88449999999999995</c:v>
+                  <c:v>0.96530000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91339999999999999</c:v>
+                  <c:v>0.98599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.92959999999999998</c:v>
+                  <c:v>0.99050000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.94359999999999999</c:v>
+                  <c:v>0.9919</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.95489999999999997</c:v>
+                  <c:v>0.99229999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.96660000000000001</c:v>
+                  <c:v>0.99229999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97109999999999996</c:v>
+                  <c:v>0.99280000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.97609999999999997</c:v>
+                  <c:v>0.99280000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11478,11 +11079,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147216640"/>
-        <c:axId val="147227008"/>
+        <c:axId val="85108608"/>
+        <c:axId val="85114880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="147216640"/>
+        <c:axId val="85108608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11511,7 +11112,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147227008"/>
+        <c:crossAx val="85114880"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11519,7 +11120,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147227008"/>
+        <c:axId val="85114880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -11550,7 +11151,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147216640"/>
+        <c:crossAx val="85108608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11622,7 +11223,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Topline!$J$1</c:f>
+              <c:f>TopLine_joint!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11644,7 +11245,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>TopLine_all!$B$2:$B$11</c:f>
+              <c:f>TopLine_joint!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -11683,39 +11284,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Topline!$J$2:$J$11</c:f>
+              <c:f>TopLine_joint!$J$2:$J$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.77480000000000004</c:v>
+                  <c:v>0.14549999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77480000000000004</c:v>
+                  <c:v>0.14549999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.77480000000000004</c:v>
+                  <c:v>0.14549999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.77480000000000004</c:v>
+                  <c:v>0.14549999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.77480000000000004</c:v>
+                  <c:v>0.14549999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.77480000000000004</c:v>
+                  <c:v>0.14549999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.77480000000000004</c:v>
+                  <c:v>0.14549999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.77480000000000004</c:v>
+                  <c:v>0.14549999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.77480000000000004</c:v>
+                  <c:v>0.14549999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.77480000000000004</c:v>
+                  <c:v>0.14549999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11727,7 +11328,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Topline!$F$1</c:f>
+              <c:f>TopLine_joint!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11748,7 +11349,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>TopLine_all!$B$2:$B$11</c:f>
+              <c:f>TopLine_joint!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -11787,39 +11388,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Topline!$F$2:$F$11</c:f>
+              <c:f>TopLine_joint!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.52810000000000001</c:v>
+                  <c:v>0.2122</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64329999999999998</c:v>
+                  <c:v>0.60360000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.69579999999999997</c:v>
+                  <c:v>0.87239999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.73160000000000003</c:v>
+                  <c:v>0.89410000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.75549999999999995</c:v>
+                  <c:v>0.90559999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.77249999999999996</c:v>
+                  <c:v>0.91369999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.78669999999999995</c:v>
+                  <c:v>0.91849999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.80059999999999998</c:v>
+                  <c:v>0.92300000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.81200000000000006</c:v>
+                  <c:v>0.92449999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.82230000000000003</c:v>
+                  <c:v>0.92759999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11831,7 +11432,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Topline!$K$1</c:f>
+              <c:f>TopLine_joint!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11853,7 +11454,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>TopLine_all!$B$2:$B$11</c:f>
+              <c:f>TopLine_joint!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -11892,39 +11493,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Topline!$K$2:$K$11</c:f>
+              <c:f>TopLine_joint!$K$2:$K$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.79279999999999995</c:v>
+                  <c:v>0.1394</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.79279999999999995</c:v>
+                  <c:v>0.1394</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.79279999999999995</c:v>
+                  <c:v>0.1394</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.79279999999999995</c:v>
+                  <c:v>0.1394</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.79279999999999995</c:v>
+                  <c:v>0.1394</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.79279999999999995</c:v>
+                  <c:v>0.1394</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.79279999999999995</c:v>
+                  <c:v>0.1394</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.79279999999999995</c:v>
+                  <c:v>0.1394</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79279999999999995</c:v>
+                  <c:v>0.1394</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.79279999999999995</c:v>
+                  <c:v>0.1394</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11936,7 +11537,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Topline!$G$1</c:f>
+              <c:f>TopLine_joint!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11957,7 +11558,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>TopLine_all!$B$2:$B$11</c:f>
+              <c:f>TopLine_joint!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -11996,39 +11597,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Topline!$G$2:$G$11</c:f>
+              <c:f>TopLine_joint!$G$2:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.65769999999999995</c:v>
+                  <c:v>0.17230000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.70640000000000003</c:v>
+                  <c:v>0.7097</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.73440000000000005</c:v>
+                  <c:v>0.92889999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75490000000000002</c:v>
+                  <c:v>0.94530000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.77</c:v>
+                  <c:v>0.95279999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.78369999999999995</c:v>
+                  <c:v>0.9546</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.79510000000000003</c:v>
+                  <c:v>0.96050000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.80720000000000003</c:v>
+                  <c:v>0.96179999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.81979999999999997</c:v>
+                  <c:v>0.96650000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.82940000000000003</c:v>
+                  <c:v>0.96740000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12040,7 +11641,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Topline!$L$1</c:f>
+              <c:f>TopLine_joint!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12062,7 +11663,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>TopLine_all!$B$2:$B$11</c:f>
+              <c:f>TopLine_joint!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -12101,36 +11702,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Topline!$L$2:$L$10</c:f>
+              <c:f>TopLine_joint!$L$2:$L$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.91779999999999995</c:v>
+                  <c:v>0.47320000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91779999999999995</c:v>
+                  <c:v>0.47320000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91779999999999995</c:v>
+                  <c:v>0.47320000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91779999999999995</c:v>
+                  <c:v>0.47320000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91779999999999995</c:v>
+                  <c:v>0.47320000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.91779999999999995</c:v>
+                  <c:v>0.47320000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.91779999999999995</c:v>
+                  <c:v>0.47320000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.91779999999999995</c:v>
+                  <c:v>0.47320000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.91779999999999995</c:v>
+                  <c:v>0.47320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47320000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12142,7 +11746,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Topline!$H$1</c:f>
+              <c:f>TopLine_joint!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12163,7 +11767,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>TopLine_all!$B$2:$B$11</c:f>
+              <c:f>TopLine_joint!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -12202,39 +11806,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Topline!$H$2:$H$11</c:f>
+              <c:f>TopLine_joint!$H$2:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.83440000000000003</c:v>
+                  <c:v>8.1500000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94810000000000005</c:v>
+                  <c:v>0.2797</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96530000000000005</c:v>
+                  <c:v>0.89910000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97309999999999997</c:v>
+                  <c:v>0.94079999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97760000000000002</c:v>
+                  <c:v>0.96399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.98119999999999996</c:v>
+                  <c:v>0.97299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98409999999999997</c:v>
+                  <c:v>0.97660000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.98580000000000001</c:v>
+                  <c:v>0.9819</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.98640000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.98709999999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12246,7 +11850,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Topline!$M$1</c:f>
+              <c:f>TopLine_joint!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12268,7 +11872,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>TopLine_all!$B$2:$B$11</c:f>
+              <c:f>TopLine_joint!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -12307,39 +11911,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Topline!$M$2:$M$11</c:f>
+              <c:f>TopLine_joint!$M$2:$M$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.82330000000000003</c:v>
+                  <c:v>0.17749999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.82330000000000003</c:v>
+                  <c:v>0.17749999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82330000000000003</c:v>
+                  <c:v>0.17749999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.82330000000000003</c:v>
+                  <c:v>0.17749999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.82330000000000003</c:v>
+                  <c:v>0.17749999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.82330000000000003</c:v>
+                  <c:v>0.17749999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.82330000000000003</c:v>
+                  <c:v>0.17749999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.82330000000000003</c:v>
+                  <c:v>0.17749999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.82330000000000003</c:v>
+                  <c:v>0.17749999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.82330000000000003</c:v>
+                  <c:v>0.17749999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12351,7 +11955,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Topline!$I$1</c:f>
+              <c:f>TopLine_joint!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12372,7 +11976,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>TopLine_all!$B$2:$B$11</c:f>
+              <c:f>TopLine_joint!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -12411,39 +12015,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Topline!$I$2:$I$11</c:f>
+              <c:f>TopLine_joint!$I$2:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.81979999999999997</c:v>
+                  <c:v>0.24060000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92210000000000003</c:v>
+                  <c:v>0.3599</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94159999999999999</c:v>
+                  <c:v>0.85970000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9556</c:v>
+                  <c:v>0.94379999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96399999999999997</c:v>
+                  <c:v>0.95789999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.96989999999999998</c:v>
+                  <c:v>0.96550000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97640000000000005</c:v>
+                  <c:v>0.96819999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.98089999999999999</c:v>
+                  <c:v>0.96819999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.98319999999999996</c:v>
+                  <c:v>0.96930000000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.98580000000000001</c:v>
+                  <c:v>0.96930000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12460,11 +12064,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111704704"/>
-        <c:axId val="138150656"/>
+        <c:axId val="82530304"/>
+        <c:axId val="82532224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111704704"/>
+        <c:axId val="82530304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12493,7 +12097,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138150656"/>
+        <c:crossAx val="82532224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12501,11 +12105,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138150656"/>
+        <c:axId val="82532224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
-          <c:min val="0.4"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -12529,13 +12133,14 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111704704"/>
+        <c:crossAx val="82530304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:minorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -12605,7 +12210,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Topline!$J$1</c:f>
+              <c:f>TopLine_joint!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12627,7 +12232,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>TopLine_all!$B$2:$B$11</c:f>
+              <c:f>TopLine_joint!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -12666,39 +12271,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Topline!$J$12:$J$21</c:f>
+              <c:f>TopLine_joint!$J$12:$J$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.60199999999999998</c:v>
+                  <c:v>0.1467</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60199999999999998</c:v>
+                  <c:v>0.1467</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.60199999999999998</c:v>
+                  <c:v>0.1467</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.60199999999999998</c:v>
+                  <c:v>0.1467</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60199999999999998</c:v>
+                  <c:v>0.1467</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.60199999999999998</c:v>
+                  <c:v>0.1467</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.60199999999999998</c:v>
+                  <c:v>0.1467</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.60199999999999998</c:v>
+                  <c:v>0.1467</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.60199999999999998</c:v>
+                  <c:v>0.1467</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.60199999999999998</c:v>
+                  <c:v>0.1467</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12710,7 +12315,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Topline!$F$1</c:f>
+              <c:f>TopLine_joint!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12731,7 +12336,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>TopLine_all!$B$2:$B$11</c:f>
+              <c:f>TopLine_joint!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -12770,39 +12375,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Topline!$F$12:$F$21</c:f>
+              <c:f>TopLine_joint!$F$12:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.2084</c:v>
+                  <c:v>0.21429999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34289999999999998</c:v>
+                  <c:v>0.60209999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.41310000000000002</c:v>
+                  <c:v>0.87209999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4657</c:v>
+                  <c:v>0.89370000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.50380000000000003</c:v>
+                  <c:v>0.90529999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.53410000000000002</c:v>
+                  <c:v>0.9133</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.55930000000000002</c:v>
+                  <c:v>0.91810000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.58479999999999999</c:v>
+                  <c:v>0.92259999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.60599999999999998</c:v>
+                  <c:v>0.92420000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.62619999999999998</c:v>
+                  <c:v>0.92720000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12814,7 +12419,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Topline!$K$1</c:f>
+              <c:f>TopLine_joint!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12836,7 +12441,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>TopLine_all!$B$2:$B$11</c:f>
+              <c:f>TopLine_joint!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -12875,39 +12480,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Topline!$K$12:$K$21</c:f>
+              <c:f>TopLine_joint!$K$12:$K$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.49049999999999999</c:v>
+                  <c:v>0.1399</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.49049999999999999</c:v>
+                  <c:v>0.1399</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.49049999999999999</c:v>
+                  <c:v>0.1399</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.49049999999999999</c:v>
+                  <c:v>0.1399</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.49049999999999999</c:v>
+                  <c:v>0.1399</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.49049999999999999</c:v>
+                  <c:v>0.1399</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.49049999999999999</c:v>
+                  <c:v>0.1399</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.49049999999999999</c:v>
+                  <c:v>0.1399</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.49049999999999999</c:v>
+                  <c:v>0.1399</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.49049999999999999</c:v>
+                  <c:v>0.1399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12919,7 +12524,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Topline!$G$1</c:f>
+              <c:f>TopLine_joint!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12940,7 +12545,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>TopLine_all!$B$2:$B$11</c:f>
+              <c:f>TopLine_joint!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -12979,39 +12584,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Topline!$G$12:$G$21</c:f>
+              <c:f>TopLine_joint!$G$12:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.16320000000000001</c:v>
+                  <c:v>0.1729</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25629999999999997</c:v>
+                  <c:v>0.70789999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.31190000000000001</c:v>
+                  <c:v>0.92820000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.36070000000000002</c:v>
+                  <c:v>0.94479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.39750000000000002</c:v>
+                  <c:v>0.95240000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.43030000000000002</c:v>
+                  <c:v>0.95420000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.45789999999999997</c:v>
+                  <c:v>0.96009999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.48620000000000002</c:v>
+                  <c:v>0.96140000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.51549999999999996</c:v>
+                  <c:v>0.96609999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.53910000000000002</c:v>
+                  <c:v>0.96709999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13023,7 +12628,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Topline!$L$1</c:f>
+              <c:f>TopLine_joint!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13045,7 +12650,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>TopLine_all!$B$2:$B$11</c:f>
+              <c:f>TopLine_joint!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -13084,39 +12689,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Topline!$L$12:$L$21</c:f>
+              <c:f>TopLine_joint!$L$12:$L$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.62019999999999997</c:v>
+                  <c:v>0.44750000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.62019999999999997</c:v>
+                  <c:v>0.44750000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.62019999999999997</c:v>
+                  <c:v>0.44750000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.62019999999999997</c:v>
+                  <c:v>0.44750000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.62019999999999997</c:v>
+                  <c:v>0.44750000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.62019999999999997</c:v>
+                  <c:v>0.44750000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.62019999999999997</c:v>
+                  <c:v>0.44750000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.62019999999999997</c:v>
+                  <c:v>0.44750000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.62019999999999997</c:v>
+                  <c:v>0.44750000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.62019999999999997</c:v>
+                  <c:v>0.44750000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13128,7 +12733,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Topline!$H$1</c:f>
+              <c:f>TopLine_joint!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13149,7 +12754,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>TopLine_all!$B$2:$B$11</c:f>
+              <c:f>TopLine_joint!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -13188,39 +12793,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Topline!$H$12:$H$21</c:f>
+              <c:f>TopLine_joint!$H$12:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.41520000000000001</c:v>
+                  <c:v>0.1084</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77039999999999997</c:v>
+                  <c:v>0.3488</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83699999999999997</c:v>
+                  <c:v>0.88439999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.86639999999999995</c:v>
+                  <c:v>0.92759999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88449999999999995</c:v>
+                  <c:v>0.95389999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.89810000000000001</c:v>
+                  <c:v>0.9647</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.91349999999999998</c:v>
+                  <c:v>0.96960000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92300000000000004</c:v>
+                  <c:v>0.9758</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.93</c:v>
+                  <c:v>0.98170000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.93679999999999997</c:v>
+                  <c:v>0.98280000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13232,7 +12837,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Topline!$M$1</c:f>
+              <c:f>TopLine_joint!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13254,7 +12859,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>TopLine_all!$B$2:$B$11</c:f>
+              <c:f>TopLine_joint!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -13293,39 +12898,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Topline!$M$12:$M$21</c:f>
+              <c:f>TopLine_joint!$M$12:$M$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.58409999999999995</c:v>
+                  <c:v>0.15720000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.58409999999999995</c:v>
+                  <c:v>0.15720000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.58409999999999995</c:v>
+                  <c:v>0.15720000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.58409999999999995</c:v>
+                  <c:v>0.15720000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.58409999999999995</c:v>
+                  <c:v>0.15720000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.58409999999999995</c:v>
+                  <c:v>0.15720000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.58409999999999995</c:v>
+                  <c:v>0.15720000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.58409999999999995</c:v>
+                  <c:v>0.15720000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.58409999999999995</c:v>
+                  <c:v>0.15720000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.58409999999999995</c:v>
+                  <c:v>0.15720000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13337,7 +12942,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Topline!$I$1</c:f>
+              <c:f>TopLine_joint!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13358,7 +12963,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>TopLine_all!$B$2:$B$11</c:f>
+              <c:f>TopLine_joint!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -13397,39 +13002,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Topline!$I$12:$I$21</c:f>
+              <c:f>TopLine_joint!$I$12:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.59160000000000001</c:v>
+                  <c:v>0.2485</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.80079999999999996</c:v>
+                  <c:v>0.38019999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85189999999999999</c:v>
+                  <c:v>0.85619999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88800000000000001</c:v>
+                  <c:v>0.94130000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.90900000000000003</c:v>
+                  <c:v>0.95550000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92449999999999999</c:v>
+                  <c:v>0.96350000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94199999999999995</c:v>
+                  <c:v>0.96679999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.9536</c:v>
+                  <c:v>0.96679999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.96030000000000004</c:v>
+                  <c:v>0.96809999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.96560000000000001</c:v>
+                  <c:v>0.96809999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13463,7 +13068,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>TopLine_all!$B$2:$B$11</c:f>
+              <c:f>TopLine_joint!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -13535,737 +13140,6 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.60199999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]Topline!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>test1-topline</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="002060"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>TopLine_all!$B$2:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Topline!$F$12:$F$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.2084</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.34289999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.41310000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4657</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.50380000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.53410000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.55930000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.58479999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.60599999999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.62619999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]Topline!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>test2-baseline</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>TopLine_all!$B$2:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Topline!$K$12:$K$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.49049999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.49049999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.49049999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.49049999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.49049999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.49049999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.49049999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.49049999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.49049999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.49049999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]Topline!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>test2-topline</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>TopLine_all!$B$2:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Topline!$G$12:$G$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.16320000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25629999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.31190000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.36070000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.39750000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.43030000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.45789999999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.48620000000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.51549999999999996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.53910000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="12"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]Topline!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>test3-baseline</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>TopLine_all!$B$2:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Topline!$L$12:$L$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.62019999999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.62019999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.62019999999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.62019999999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.62019999999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.62019999999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.62019999999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.62019999999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.62019999999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.62019999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="13"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]Topline!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>test3-topline</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>TopLine_all!$B$2:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Topline!$H$12:$H$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.41520000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.77039999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.83699999999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.86639999999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.88449999999999995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.89810000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.91349999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.92300000000000004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.93</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.93679999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="14"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]Topline!$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>test4-baseline</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>TopLine_all!$B$2:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Topline!$M$12:$M$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.58409999999999995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.58409999999999995</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.58409999999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.58409999999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.58409999999999995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.58409999999999995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.58409999999999995</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.58409999999999995</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.58409999999999995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.58409999999999995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="15"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]Topline!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>test4-topline</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>TopLine_all!$B$2:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Topline!$I$12:$I$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.59160000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.80079999999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.85189999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.88800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.90900000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.92449999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.94199999999999995</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.9536</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.96030000000000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.96560000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14282,11 +13156,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="139023872"/>
-        <c:axId val="139025792"/>
+        <c:axId val="82623872"/>
+        <c:axId val="82638336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="139023872"/>
+        <c:axId val="82623872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14315,7 +13189,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139025792"/>
+        <c:crossAx val="82638336"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14323,9 +13197,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139025792"/>
+        <c:axId val="82638336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -14349,11 +13224,11 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139023872"/>
+        <c:crossAx val="82623872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14366,6 +13241,10 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="8"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -14425,7 +13304,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Topline!$J$1</c:f>
+              <c:f>TopLine_joint!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14447,7 +13326,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>TopLine_all!$B$2:$B$11</c:f>
+              <c:f>TopLine_joint!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -14486,39 +13365,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Topline!$J$22:$J$31</c:f>
+              <c:f>TopLine_joint!$J$22:$J$31</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.59819999999999995</c:v>
+                  <c:v>0.1043</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.59819999999999995</c:v>
+                  <c:v>0.1043</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59819999999999995</c:v>
+                  <c:v>0.1043</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59819999999999995</c:v>
+                  <c:v>0.1043</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.59819999999999995</c:v>
+                  <c:v>0.1043</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.59819999999999995</c:v>
+                  <c:v>0.1043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59819999999999995</c:v>
+                  <c:v>0.1043</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.59819999999999995</c:v>
+                  <c:v>0.1043</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.59819999999999995</c:v>
+                  <c:v>0.1043</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.59819999999999995</c:v>
+                  <c:v>0.1043</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14530,7 +13409,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Topline!$F$1</c:f>
+              <c:f>TopLine_joint!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14551,7 +13430,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>TopLine_all!$B$2:$B$11</c:f>
+              <c:f>TopLine_joint!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -14590,39 +13469,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Topline!$F$22:$F$31</c:f>
+              <c:f>TopLine_joint!$F$22:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.26850000000000002</c:v>
+                  <c:v>0.1376</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44140000000000001</c:v>
+                  <c:v>0.69259999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.51259999999999994</c:v>
+                  <c:v>0.8679</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.56089999999999995</c:v>
+                  <c:v>0.88460000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.59419999999999995</c:v>
+                  <c:v>0.89349999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.61719999999999997</c:v>
+                  <c:v>0.90010000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.63870000000000005</c:v>
+                  <c:v>0.90459999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.65610000000000002</c:v>
+                  <c:v>0.90900000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.67410000000000003</c:v>
+                  <c:v>0.91010000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.69089999999999996</c:v>
+                  <c:v>0.91339999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14634,7 +13513,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Topline!$K$1</c:f>
+              <c:f>TopLine_joint!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14656,7 +13535,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>TopLine_all!$B$2:$B$11</c:f>
+              <c:f>TopLine_joint!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -14695,39 +13574,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Topline!$K$22:$K$31</c:f>
+              <c:f>TopLine_joint!$K$22:$K$31</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.4869</c:v>
+                  <c:v>0.1409</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4869</c:v>
+                  <c:v>0.1409</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4869</c:v>
+                  <c:v>0.1409</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4869</c:v>
+                  <c:v>0.1409</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4869</c:v>
+                  <c:v>0.1409</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4869</c:v>
+                  <c:v>0.1409</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.4869</c:v>
+                  <c:v>0.1409</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.4869</c:v>
+                  <c:v>0.1409</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.4869</c:v>
+                  <c:v>0.1409</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.4869</c:v>
+                  <c:v>0.1409</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14739,7 +13618,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Topline!$G$1</c:f>
+              <c:f>TopLine_joint!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14760,7 +13639,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>TopLine_all!$B$2:$B$11</c:f>
+              <c:f>TopLine_joint!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -14799,39 +13678,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Topline!$G$22:$G$31</c:f>
+              <c:f>TopLine_joint!$G$22:$G$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.21929999999999999</c:v>
+                  <c:v>0.16800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32719999999999999</c:v>
+                  <c:v>0.79269999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38800000000000001</c:v>
+                  <c:v>0.95120000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.43469999999999998</c:v>
+                  <c:v>0.95930000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.46970000000000001</c:v>
+                  <c:v>0.96609999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.50180000000000002</c:v>
+                  <c:v>0.96879999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.52890000000000004</c:v>
+                  <c:v>0.97560000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.55940000000000001</c:v>
+                  <c:v>0.97829999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.59009999999999996</c:v>
+                  <c:v>0.98240000000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.61399999999999999</c:v>
+                  <c:v>0.98240000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14843,7 +13722,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Topline!$L$1</c:f>
+              <c:f>TopLine_joint!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14865,7 +13744,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>TopLine_all!$B$2:$B$11</c:f>
+              <c:f>TopLine_joint!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -14904,39 +13783,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Topline!$L$22:$L$31</c:f>
+              <c:f>TopLine_joint!$L$22:$L$31</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.70330000000000004</c:v>
+                  <c:v>0.49230000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.70330000000000004</c:v>
+                  <c:v>0.49230000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.70330000000000004</c:v>
+                  <c:v>0.49230000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.70330000000000004</c:v>
+                  <c:v>0.49230000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.70330000000000004</c:v>
+                  <c:v>0.49230000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.70330000000000004</c:v>
+                  <c:v>0.49230000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.70330000000000004</c:v>
+                  <c:v>0.49230000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.70330000000000004</c:v>
+                  <c:v>0.49230000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.70330000000000004</c:v>
+                  <c:v>0.49230000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.70330000000000004</c:v>
+                  <c:v>0.49230000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14948,7 +13827,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Topline!$H$1</c:f>
+              <c:f>TopLine_joint!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14969,7 +13848,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>TopLine_all!$B$2:$B$11</c:f>
+              <c:f>TopLine_joint!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -15008,39 +13887,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Topline!$H$22:$H$31</c:f>
+              <c:f>TopLine_joint!$H$22:$H$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.38030000000000003</c:v>
+                  <c:v>6.1600000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.81950000000000001</c:v>
+                  <c:v>0.20799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.87739999999999996</c:v>
+                  <c:v>0.91779999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9012</c:v>
+                  <c:v>0.95289999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91569999999999996</c:v>
+                  <c:v>0.97260000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92820000000000003</c:v>
+                  <c:v>0.98119999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.93979999999999997</c:v>
+                  <c:v>0.98460000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94630000000000003</c:v>
+                  <c:v>0.98799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.95140000000000002</c:v>
+                  <c:v>0.99060000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.95750000000000002</c:v>
+                  <c:v>0.99060000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15052,7 +13931,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Topline!$M$1</c:f>
+              <c:f>TopLine_joint!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15074,7 +13953,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>TopLine_all!$B$2:$B$11</c:f>
+              <c:f>TopLine_joint!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -15113,39 +13992,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Topline!$M$22:$M$31</c:f>
+              <c:f>TopLine_joint!$M$22:$M$31</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.63959999999999995</c:v>
+                  <c:v>0.1162</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.63959999999999995</c:v>
+                  <c:v>0.1162</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.63959999999999995</c:v>
+                  <c:v>0.1162</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.63959999999999995</c:v>
+                  <c:v>0.1162</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.63959999999999995</c:v>
+                  <c:v>0.1162</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.63959999999999995</c:v>
+                  <c:v>0.1162</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.63959999999999995</c:v>
+                  <c:v>0.1162</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.63959999999999995</c:v>
+                  <c:v>0.1162</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.63959999999999995</c:v>
+                  <c:v>0.1162</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.63959999999999995</c:v>
+                  <c:v>0.1162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15157,7 +14036,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Topline!$I$1</c:f>
+              <c:f>TopLine_joint!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15178,7 +14057,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>TopLine_all!$B$2:$B$11</c:f>
+              <c:f>TopLine_joint!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -15217,39 +14096,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Topline!$I$22:$I$31</c:f>
+              <c:f>TopLine_joint!$I$22:$I$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.61339999999999995</c:v>
+                  <c:v>0.1162</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.84079999999999999</c:v>
+                  <c:v>0.2303</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88449999999999995</c:v>
+                  <c:v>0.84209999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91339999999999999</c:v>
+                  <c:v>0.93420000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.92959999999999998</c:v>
+                  <c:v>0.95609999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.94359999999999999</c:v>
+                  <c:v>0.9627</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.95489999999999997</c:v>
+                  <c:v>0.96489999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.96660000000000001</c:v>
+                  <c:v>0.96489999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97109999999999996</c:v>
+                  <c:v>0.96709999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.97609999999999997</c:v>
+                  <c:v>0.96709999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15266,11 +14145,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="139155328"/>
-        <c:axId val="139374592"/>
+        <c:axId val="82826752"/>
+        <c:axId val="82828672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="139155328"/>
+        <c:axId val="82826752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15299,7 +14178,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139374592"/>
+        <c:crossAx val="82828672"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15307,7 +14186,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139374592"/>
+        <c:axId val="82828672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -15334,11 +14213,11 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139155328"/>
+        <c:crossAx val="82826752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15405,16 +14284,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>477052</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>40556</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>505066</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>74874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>584547</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>145917</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>7444</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180235</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15437,16 +14316,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>118329</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>64994</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>356455</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>53089</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>223103</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>133028</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>461228</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>121123</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15469,16 +14348,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>479613</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>134496</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>74800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>86870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>585295</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>63898</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>180482</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>16272</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15506,20 +14385,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>477052</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>40556</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>505066</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>74874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>584547</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>145917</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>7444</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180235</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -15538,20 +14417,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>118329</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>64994</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>7205</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>53089</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>223103</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>133028</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>111978</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>121123</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -15570,20 +14449,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>479613</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>134496</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>424050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>150370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>585295</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>63898</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>529732</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>79772</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="7" name="Chart 6"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -85973,8 +84852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -86042,16 +84921,16 @@
         <v>7</v>
       </c>
       <c r="F2" s="48">
-        <v>0.52810000000000001</v>
+        <v>0.81620000000000004</v>
       </c>
       <c r="G2" s="48">
-        <v>0.65769999999999995</v>
+        <v>0.79710000000000003</v>
       </c>
       <c r="H2" s="48">
-        <v>0.83440000000000003</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="I2" s="48">
-        <v>0.81979999999999997</v>
+        <v>0.84340000000000004</v>
       </c>
       <c r="J2" s="51">
         <v>0.77480000000000004</v>
@@ -86071,16 +84950,16 @@
         <v>0</v>
       </c>
       <c r="F3" s="48">
-        <v>0.64329999999999998</v>
+        <v>0.94820000000000004</v>
       </c>
       <c r="G3" s="48">
-        <v>0.70640000000000003</v>
+        <v>0.96389999999999998</v>
       </c>
       <c r="H3" s="48">
-        <v>0.94810000000000005</v>
+        <v>0.87280000000000002</v>
       </c>
       <c r="I3" s="48">
-        <v>0.92210000000000003</v>
+        <v>0.89149999999999996</v>
       </c>
       <c r="J3" s="51">
         <v>0.77480000000000004</v>
@@ -86100,16 +84979,16 @@
         <v>1</v>
       </c>
       <c r="F4" s="48">
-        <v>0.69579999999999997</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="G4" s="48">
-        <v>0.73440000000000005</v>
+        <v>0.9919</v>
       </c>
       <c r="H4" s="48">
-        <v>0.96530000000000005</v>
+        <v>0.98870000000000002</v>
       </c>
       <c r="I4" s="48">
-        <v>0.94159999999999999</v>
+        <v>0.98350000000000004</v>
       </c>
       <c r="J4" s="51">
         <v>0.77480000000000004</v>
@@ -86129,16 +85008,16 @@
         <v>2</v>
       </c>
       <c r="F5" s="48">
-        <v>0.73160000000000003</v>
+        <v>0.98760000000000003</v>
       </c>
       <c r="G5" s="48">
-        <v>0.75490000000000002</v>
+        <v>0.99380000000000002</v>
       </c>
       <c r="H5" s="48">
-        <v>0.97309999999999997</v>
+        <v>0.99339999999999995</v>
       </c>
       <c r="I5" s="48">
-        <v>0.9556</v>
+        <v>0.99350000000000005</v>
       </c>
       <c r="J5" s="51">
         <v>0.77480000000000004</v>
@@ -86158,16 +85037,16 @@
         <v>3</v>
       </c>
       <c r="F6" s="48">
-        <v>0.75549999999999995</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="G6" s="48">
-        <v>0.77</v>
+        <v>0.99470000000000003</v>
       </c>
       <c r="H6" s="48">
-        <v>0.97760000000000002</v>
+        <v>0.996</v>
       </c>
       <c r="I6" s="48">
-        <v>0.96399999999999997</v>
+        <v>0.99509999999999998</v>
       </c>
       <c r="J6" s="51">
         <v>0.77480000000000004</v>
@@ -86187,16 +85066,16 @@
         <v>4</v>
       </c>
       <c r="F7" s="48">
-        <v>0.77249999999999996</v>
+        <v>0.9899</v>
       </c>
       <c r="G7" s="48">
-        <v>0.78369999999999995</v>
+        <v>0.99490000000000001</v>
       </c>
       <c r="H7" s="48">
-        <v>0.98119999999999996</v>
+        <v>0.997</v>
       </c>
       <c r="I7" s="48">
-        <v>0.96989999999999998</v>
+        <v>0.996</v>
       </c>
       <c r="J7" s="51">
         <v>0.77480000000000004</v>
@@ -86216,16 +85095,16 @@
         <v>5</v>
       </c>
       <c r="F8" s="48">
-        <v>0.78669999999999995</v>
+        <v>0.99070000000000003</v>
       </c>
       <c r="G8" s="48">
-        <v>0.79510000000000003</v>
+        <v>0.99550000000000005</v>
       </c>
       <c r="H8" s="48">
-        <v>0.98409999999999997</v>
+        <v>0.99739999999999995</v>
       </c>
       <c r="I8" s="48">
-        <v>0.97640000000000005</v>
+        <v>0.99629999999999996</v>
       </c>
       <c r="J8" s="51">
         <v>0.77480000000000004</v>
@@ -86245,16 +85124,16 @@
         <v>6</v>
       </c>
       <c r="F9" s="48">
-        <v>0.80059999999999998</v>
+        <v>0.99119999999999997</v>
       </c>
       <c r="G9" s="48">
-        <v>0.80720000000000003</v>
+        <v>0.99570000000000003</v>
       </c>
       <c r="H9" s="48">
-        <v>0.98580000000000001</v>
+        <v>0.998</v>
       </c>
       <c r="I9" s="48">
-        <v>0.98089999999999999</v>
+        <v>0.99629999999999996</v>
       </c>
       <c r="J9" s="51">
         <v>0.77480000000000004</v>
@@ -86274,16 +85153,16 @@
         <v>7</v>
       </c>
       <c r="F10" s="48">
-        <v>0.81200000000000006</v>
+        <v>0.99139999999999995</v>
       </c>
       <c r="G10" s="48">
-        <v>0.81979999999999997</v>
+        <v>0.99619999999999997</v>
       </c>
       <c r="H10" s="48">
-        <v>0.98709999999999998</v>
+        <v>0.99850000000000005</v>
       </c>
       <c r="I10" s="48">
-        <v>0.98319999999999996</v>
+        <v>0.99639999999999995</v>
       </c>
       <c r="J10" s="51">
         <v>0.77480000000000004</v>
@@ -86303,16 +85182,16 @@
         <v>8</v>
       </c>
       <c r="F11" s="48">
-        <v>0.82230000000000003</v>
+        <v>0.99170000000000003</v>
       </c>
       <c r="G11" s="48">
-        <v>0.82940000000000003</v>
+        <v>0.99629999999999996</v>
       </c>
       <c r="H11" s="48">
-        <v>0.9889</v>
+        <v>0.99860000000000004</v>
       </c>
       <c r="I11" s="48">
-        <v>0.98580000000000001</v>
+        <v>0.99639999999999995</v>
       </c>
       <c r="J11" s="51">
         <v>0.77480000000000004</v>
@@ -86335,16 +85214,16 @@
         <v>1902</v>
       </c>
       <c r="F12" s="48">
-        <v>0.2084</v>
+        <v>0.7056</v>
       </c>
       <c r="G12" s="48">
-        <v>0.16320000000000001</v>
+        <v>0.52669999999999995</v>
       </c>
       <c r="H12" s="48">
-        <v>0.41520000000000001</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="I12" s="48">
-        <v>0.59160000000000001</v>
+        <v>0.65849999999999997</v>
       </c>
       <c r="J12" s="51">
         <v>0.60199999999999998</v>
@@ -86364,16 +85243,16 @@
         <v>0</v>
       </c>
       <c r="F13" s="48">
-        <v>0.34289999999999998</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="G13" s="48">
-        <v>0.25629999999999997</v>
+        <v>0.88349999999999995</v>
       </c>
       <c r="H13" s="48">
-        <v>0.77039999999999997</v>
+        <v>0.44650000000000001</v>
       </c>
       <c r="I13" s="48">
-        <v>0.80079999999999996</v>
+        <v>0.77790000000000004</v>
       </c>
       <c r="J13" s="51">
         <v>0.60199999999999998</v>
@@ -86393,16 +85272,16 @@
         <v>1</v>
       </c>
       <c r="F14" s="48">
-        <v>0.41310000000000002</v>
+        <v>0.97070000000000001</v>
       </c>
       <c r="G14" s="48">
-        <v>0.31190000000000001</v>
+        <v>0.97430000000000005</v>
       </c>
       <c r="H14" s="48">
-        <v>0.83699999999999997</v>
+        <v>0.91310000000000002</v>
       </c>
       <c r="I14" s="48">
-        <v>0.85189999999999999</v>
+        <v>0.96050000000000002</v>
       </c>
       <c r="J14" s="51">
         <v>0.60199999999999998</v>
@@ -86422,16 +85301,16 @@
         <v>2</v>
       </c>
       <c r="F15" s="48">
-        <v>0.4657</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="G15" s="48">
-        <v>0.36070000000000002</v>
+        <v>0.97919999999999996</v>
       </c>
       <c r="H15" s="48">
-        <v>0.86639999999999995</v>
+        <v>0.94579999999999997</v>
       </c>
       <c r="I15" s="48">
-        <v>0.88800000000000001</v>
+        <v>0.98260000000000003</v>
       </c>
       <c r="J15" s="51">
         <v>0.60199999999999998</v>
@@ -86451,16 +85330,16 @@
         <v>3</v>
       </c>
       <c r="F16" s="48">
-        <v>0.50380000000000003</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="G16" s="48">
-        <v>0.39750000000000002</v>
+        <v>0.98240000000000005</v>
       </c>
       <c r="H16" s="48">
-        <v>0.88449999999999995</v>
+        <v>0.96540000000000004</v>
       </c>
       <c r="I16" s="48">
-        <v>0.90900000000000003</v>
+        <v>0.98640000000000005</v>
       </c>
       <c r="J16" s="51">
         <v>0.60199999999999998</v>
@@ -86480,16 +85359,16 @@
         <v>4</v>
       </c>
       <c r="F17" s="48">
-        <v>0.53410000000000002</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="G17" s="48">
-        <v>0.43030000000000002</v>
+        <v>0.98319999999999996</v>
       </c>
       <c r="H17" s="48">
-        <v>0.89810000000000001</v>
+        <v>0.97330000000000005</v>
       </c>
       <c r="I17" s="48">
-        <v>0.92449999999999999</v>
+        <v>0.98919999999999997</v>
       </c>
       <c r="J17" s="51">
         <v>0.60199999999999998</v>
@@ -86509,16 +85388,16 @@
         <v>5</v>
       </c>
       <c r="F18" s="48">
-        <v>0.55930000000000002</v>
+        <v>0.98250000000000004</v>
       </c>
       <c r="G18" s="48">
-        <v>0.45789999999999997</v>
+        <v>0.98480000000000001</v>
       </c>
       <c r="H18" s="48">
-        <v>0.91349999999999998</v>
+        <v>0.97729999999999995</v>
       </c>
       <c r="I18" s="48">
-        <v>0.94199999999999995</v>
+        <v>0.99019999999999997</v>
       </c>
       <c r="J18" s="51">
         <v>0.60199999999999998</v>
@@ -86538,16 +85417,16 @@
         <v>6</v>
       </c>
       <c r="F19" s="48">
-        <v>0.58479999999999999</v>
+        <v>0.98319999999999996</v>
       </c>
       <c r="G19" s="48">
-        <v>0.48620000000000002</v>
+        <v>0.98529999999999995</v>
       </c>
       <c r="H19" s="48">
-        <v>0.92300000000000004</v>
+        <v>0.98229999999999995</v>
       </c>
       <c r="I19" s="48">
-        <v>0.9536</v>
+        <v>0.99019999999999997</v>
       </c>
       <c r="J19" s="51">
         <v>0.60199999999999998</v>
@@ -86567,16 +85446,16 @@
         <v>7</v>
       </c>
       <c r="F20" s="48">
-        <v>0.60599999999999998</v>
+        <v>0.98380000000000001</v>
       </c>
       <c r="G20" s="48">
-        <v>0.51549999999999996</v>
+        <v>0.98709999999999998</v>
       </c>
       <c r="H20" s="48">
-        <v>0.93</v>
+        <v>0.98570000000000002</v>
       </c>
       <c r="I20" s="48">
-        <v>0.96030000000000004</v>
+        <v>0.9909</v>
       </c>
       <c r="J20" s="51">
         <v>0.60199999999999998</v>
@@ -86596,16 +85475,16 @@
         <v>8</v>
       </c>
       <c r="F21" s="48">
-        <v>0.62619999999999998</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="G21" s="48">
-        <v>0.53910000000000002</v>
+        <v>0.98750000000000004</v>
       </c>
       <c r="H21" s="48">
-        <v>0.93679999999999997</v>
+        <v>0.98650000000000004</v>
       </c>
       <c r="I21" s="48">
-        <v>0.96560000000000001</v>
+        <v>0.9909</v>
       </c>
       <c r="J21" s="51">
         <v>0.60199999999999998</v>
@@ -86628,16 +85507,16 @@
         <v>1903</v>
       </c>
       <c r="F22" s="48">
-        <v>0.26850000000000002</v>
+        <v>0.62549999999999994</v>
       </c>
       <c r="G22" s="48">
-        <v>0.21929999999999999</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="H22" s="48">
-        <v>0.38030000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="I22" s="48">
-        <v>0.61339999999999995</v>
+        <v>0.62339999999999995</v>
       </c>
       <c r="J22" s="51">
         <v>0.59819999999999995</v>
@@ -86657,16 +85536,16 @@
         <v>0</v>
       </c>
       <c r="F23" s="48">
-        <v>0.44140000000000001</v>
+        <v>0.94379999999999997</v>
       </c>
       <c r="G23" s="48">
-        <v>0.32719999999999999</v>
+        <v>0.94240000000000002</v>
       </c>
       <c r="H23" s="48">
-        <v>0.81950000000000001</v>
+        <v>0.49709999999999999</v>
       </c>
       <c r="I23" s="48">
-        <v>0.84079999999999999</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="J23" s="51">
         <v>0.59819999999999995</v>
@@ -86686,16 +85565,16 @@
         <v>1</v>
       </c>
       <c r="F24" s="48">
-        <v>0.51259999999999994</v>
+        <v>0.97770000000000001</v>
       </c>
       <c r="G24" s="48">
-        <v>0.38800000000000001</v>
+        <v>0.98809999999999998</v>
       </c>
       <c r="H24" s="48">
-        <v>0.87739999999999996</v>
+        <v>0.96879999999999999</v>
       </c>
       <c r="I24" s="48">
-        <v>0.88449999999999995</v>
+        <v>0.96530000000000005</v>
       </c>
       <c r="J24" s="51">
         <v>0.59819999999999995</v>
@@ -86715,16 +85594,16 @@
         <v>2</v>
       </c>
       <c r="F25" s="48">
-        <v>0.56089999999999995</v>
+        <v>0.98060000000000003</v>
       </c>
       <c r="G25" s="48">
-        <v>0.43469999999999998</v>
+        <v>0.99009999999999998</v>
       </c>
       <c r="H25" s="48">
-        <v>0.9012</v>
+        <v>0.98229999999999995</v>
       </c>
       <c r="I25" s="48">
-        <v>0.91339999999999999</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="J25" s="51">
         <v>0.59819999999999995</v>
@@ -86744,16 +85623,16 @@
         <v>3</v>
       </c>
       <c r="F26" s="48">
-        <v>0.59419999999999995</v>
+        <v>0.98219999999999996</v>
       </c>
       <c r="G26" s="48">
-        <v>0.46970000000000001</v>
+        <v>0.99170000000000003</v>
       </c>
       <c r="H26" s="48">
-        <v>0.91569999999999996</v>
+        <v>0.98970000000000002</v>
       </c>
       <c r="I26" s="48">
-        <v>0.92959999999999998</v>
+        <v>0.99050000000000005</v>
       </c>
       <c r="J26" s="51">
         <v>0.59819999999999995</v>
@@ -86773,16 +85652,16 @@
         <v>4</v>
       </c>
       <c r="F27" s="48">
-        <v>0.61719999999999997</v>
+        <v>0.98340000000000005</v>
       </c>
       <c r="G27" s="48">
-        <v>0.50180000000000002</v>
+        <v>0.99239999999999995</v>
       </c>
       <c r="H27" s="48">
-        <v>0.92820000000000003</v>
+        <v>0.9929</v>
       </c>
       <c r="I27" s="48">
-        <v>0.94359999999999999</v>
+        <v>0.9919</v>
       </c>
       <c r="J27" s="51">
         <v>0.59819999999999995</v>
@@ -86802,16 +85681,16 @@
         <v>5</v>
       </c>
       <c r="F28" s="48">
-        <v>0.63870000000000005</v>
+        <v>0.98440000000000005</v>
       </c>
       <c r="G28" s="48">
-        <v>0.52890000000000004</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="H28" s="48">
-        <v>0.93979999999999997</v>
+        <v>0.99419999999999997</v>
       </c>
       <c r="I28" s="48">
-        <v>0.95489999999999997</v>
+        <v>0.99229999999999996</v>
       </c>
       <c r="J28" s="51">
         <v>0.59819999999999995</v>
@@ -86831,16 +85710,16 @@
         <v>6</v>
       </c>
       <c r="F29" s="48">
-        <v>0.65610000000000002</v>
+        <v>0.98509999999999998</v>
       </c>
       <c r="G29" s="48">
-        <v>0.55940000000000001</v>
+        <v>0.99470000000000003</v>
       </c>
       <c r="H29" s="48">
-        <v>0.94630000000000003</v>
+        <v>0.99550000000000005</v>
       </c>
       <c r="I29" s="48">
-        <v>0.96660000000000001</v>
+        <v>0.99229999999999996</v>
       </c>
       <c r="J29" s="51">
         <v>0.59819999999999995</v>
@@ -86860,16 +85739,16 @@
         <v>7</v>
       </c>
       <c r="F30" s="48">
-        <v>0.67410000000000003</v>
+        <v>0.98529999999999995</v>
       </c>
       <c r="G30" s="48">
-        <v>0.59009999999999996</v>
+        <v>0.99570000000000003</v>
       </c>
       <c r="H30" s="48">
-        <v>0.95140000000000002</v>
+        <v>0.99650000000000005</v>
       </c>
       <c r="I30" s="48">
-        <v>0.97109999999999996</v>
+        <v>0.99280000000000002</v>
       </c>
       <c r="J30" s="51">
         <v>0.59819999999999995</v>
@@ -86889,16 +85768,16 @@
         <v>8</v>
       </c>
       <c r="F31" s="48">
-        <v>0.69089999999999996</v>
+        <v>0.98580000000000001</v>
       </c>
       <c r="G31" s="48">
-        <v>0.61399999999999999</v>
+        <v>0.99570000000000003</v>
       </c>
       <c r="H31" s="48">
-        <v>0.95750000000000002</v>
+        <v>0.99650000000000005</v>
       </c>
       <c r="I31" s="48">
-        <v>0.97609999999999997</v>
+        <v>0.99280000000000002</v>
       </c>
       <c r="J31" s="51">
         <v>0.59819999999999995</v>
@@ -86923,8 +85802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -86992,28 +85871,28 @@
         <v>7</v>
       </c>
       <c r="F2" s="48">
-        <v>0.52810000000000001</v>
+        <v>0.2122</v>
       </c>
       <c r="G2" s="48">
-        <v>0.65769999999999995</v>
+        <v>0.17230000000000001</v>
       </c>
       <c r="H2" s="48">
-        <v>0.83440000000000003</v>
+        <v>8.1500000000000003E-2</v>
       </c>
       <c r="I2" s="48">
-        <v>0.81979999999999997</v>
+        <v>0.24060000000000001</v>
       </c>
       <c r="J2" s="51">
-        <v>0.77480000000000004</v>
+        <v>0.14549999999999999</v>
       </c>
       <c r="K2" s="51">
-        <v>0.79279999999999995</v>
+        <v>0.1394</v>
       </c>
       <c r="L2" s="51">
-        <v>0.91779999999999995</v>
+        <v>0.47320000000000001</v>
       </c>
       <c r="M2" s="51">
-        <v>0.82330000000000003</v>
+        <v>0.17749999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -87021,28 +85900,28 @@
         <v>0</v>
       </c>
       <c r="F3" s="48">
-        <v>0.64329999999999998</v>
+        <v>0.60360000000000003</v>
       </c>
       <c r="G3" s="48">
-        <v>0.70640000000000003</v>
+        <v>0.7097</v>
       </c>
       <c r="H3" s="48">
-        <v>0.94810000000000005</v>
+        <v>0.2797</v>
       </c>
       <c r="I3" s="48">
-        <v>0.92210000000000003</v>
+        <v>0.3599</v>
       </c>
       <c r="J3" s="51">
-        <v>0.77480000000000004</v>
+        <v>0.14549999999999999</v>
       </c>
       <c r="K3" s="51">
-        <v>0.79279999999999995</v>
+        <v>0.1394</v>
       </c>
       <c r="L3" s="51">
-        <v>0.91779999999999995</v>
+        <v>0.47320000000000001</v>
       </c>
       <c r="M3" s="51">
-        <v>0.82330000000000003</v>
+        <v>0.17749999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -87050,28 +85929,28 @@
         <v>1</v>
       </c>
       <c r="F4" s="48">
-        <v>0.69579999999999997</v>
+        <v>0.87239999999999995</v>
       </c>
       <c r="G4" s="48">
-        <v>0.73440000000000005</v>
+        <v>0.92889999999999995</v>
       </c>
       <c r="H4" s="48">
-        <v>0.96530000000000005</v>
+        <v>0.89910000000000001</v>
       </c>
       <c r="I4" s="48">
-        <v>0.94159999999999999</v>
+        <v>0.85970000000000002</v>
       </c>
       <c r="J4" s="51">
-        <v>0.77480000000000004</v>
+        <v>0.14549999999999999</v>
       </c>
       <c r="K4" s="51">
-        <v>0.79279999999999995</v>
+        <v>0.1394</v>
       </c>
       <c r="L4" s="51">
-        <v>0.91779999999999995</v>
+        <v>0.47320000000000001</v>
       </c>
       <c r="M4" s="51">
-        <v>0.82330000000000003</v>
+        <v>0.17749999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -87079,28 +85958,28 @@
         <v>2</v>
       </c>
       <c r="F5" s="48">
-        <v>0.73160000000000003</v>
+        <v>0.89410000000000001</v>
       </c>
       <c r="G5" s="48">
-        <v>0.75490000000000002</v>
+        <v>0.94530000000000003</v>
       </c>
       <c r="H5" s="48">
-        <v>0.97309999999999997</v>
+        <v>0.94079999999999997</v>
       </c>
       <c r="I5" s="48">
-        <v>0.9556</v>
+        <v>0.94379999999999997</v>
       </c>
       <c r="J5" s="51">
-        <v>0.77480000000000004</v>
+        <v>0.14549999999999999</v>
       </c>
       <c r="K5" s="51">
-        <v>0.79279999999999995</v>
+        <v>0.1394</v>
       </c>
       <c r="L5" s="51">
-        <v>0.91779999999999995</v>
+        <v>0.47320000000000001</v>
       </c>
       <c r="M5" s="51">
-        <v>0.82330000000000003</v>
+        <v>0.17749999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -87108,28 +85987,28 @@
         <v>3</v>
       </c>
       <c r="F6" s="48">
-        <v>0.75549999999999995</v>
+        <v>0.90559999999999996</v>
       </c>
       <c r="G6" s="48">
-        <v>0.77</v>
+        <v>0.95279999999999998</v>
       </c>
       <c r="H6" s="48">
-        <v>0.97760000000000002</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="I6" s="48">
-        <v>0.96399999999999997</v>
+        <v>0.95789999999999997</v>
       </c>
       <c r="J6" s="51">
-        <v>0.77480000000000004</v>
+        <v>0.14549999999999999</v>
       </c>
       <c r="K6" s="51">
-        <v>0.79279999999999995</v>
+        <v>0.1394</v>
       </c>
       <c r="L6" s="51">
-        <v>0.91779999999999995</v>
+        <v>0.47320000000000001</v>
       </c>
       <c r="M6" s="51">
-        <v>0.82330000000000003</v>
+        <v>0.17749999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -87137,28 +86016,28 @@
         <v>4</v>
       </c>
       <c r="F7" s="48">
-        <v>0.77249999999999996</v>
+        <v>0.91369999999999996</v>
       </c>
       <c r="G7" s="48">
-        <v>0.78369999999999995</v>
+        <v>0.9546</v>
       </c>
       <c r="H7" s="48">
-        <v>0.98119999999999996</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="I7" s="48">
-        <v>0.96989999999999998</v>
+        <v>0.96550000000000002</v>
       </c>
       <c r="J7" s="51">
-        <v>0.77480000000000004</v>
+        <v>0.14549999999999999</v>
       </c>
       <c r="K7" s="51">
-        <v>0.79279999999999995</v>
+        <v>0.1394</v>
       </c>
       <c r="L7" s="51">
-        <v>0.91779999999999995</v>
+        <v>0.47320000000000001</v>
       </c>
       <c r="M7" s="51">
-        <v>0.82330000000000003</v>
+        <v>0.17749999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -87166,28 +86045,28 @@
         <v>5</v>
       </c>
       <c r="F8" s="48">
-        <v>0.78669999999999995</v>
+        <v>0.91849999999999998</v>
       </c>
       <c r="G8" s="48">
-        <v>0.79510000000000003</v>
+        <v>0.96050000000000002</v>
       </c>
       <c r="H8" s="48">
-        <v>0.98409999999999997</v>
+        <v>0.97660000000000002</v>
       </c>
       <c r="I8" s="48">
-        <v>0.97640000000000005</v>
+        <v>0.96819999999999995</v>
       </c>
       <c r="J8" s="51">
-        <v>0.77480000000000004</v>
+        <v>0.14549999999999999</v>
       </c>
       <c r="K8" s="51">
-        <v>0.79279999999999995</v>
+        <v>0.1394</v>
       </c>
       <c r="L8" s="51">
-        <v>0.91779999999999995</v>
+        <v>0.47320000000000001</v>
       </c>
       <c r="M8" s="51">
-        <v>0.82330000000000003</v>
+        <v>0.17749999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -87195,28 +86074,28 @@
         <v>6</v>
       </c>
       <c r="F9" s="48">
-        <v>0.80059999999999998</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="G9" s="48">
-        <v>0.80720000000000003</v>
+        <v>0.96179999999999999</v>
       </c>
       <c r="H9" s="48">
-        <v>0.98580000000000001</v>
+        <v>0.9819</v>
       </c>
       <c r="I9" s="48">
-        <v>0.98089999999999999</v>
+        <v>0.96819999999999995</v>
       </c>
       <c r="J9" s="51">
-        <v>0.77480000000000004</v>
+        <v>0.14549999999999999</v>
       </c>
       <c r="K9" s="51">
-        <v>0.79279999999999995</v>
+        <v>0.1394</v>
       </c>
       <c r="L9" s="51">
-        <v>0.91779999999999995</v>
+        <v>0.47320000000000001</v>
       </c>
       <c r="M9" s="51">
-        <v>0.82330000000000003</v>
+        <v>0.17749999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -87224,28 +86103,28 @@
         <v>7</v>
       </c>
       <c r="F10" s="48">
-        <v>0.81200000000000006</v>
+        <v>0.92449999999999999</v>
       </c>
       <c r="G10" s="48">
-        <v>0.81979999999999997</v>
+        <v>0.96650000000000003</v>
       </c>
       <c r="H10" s="48">
-        <v>0.98709999999999998</v>
+        <v>0.98640000000000005</v>
       </c>
       <c r="I10" s="48">
-        <v>0.98319999999999996</v>
+        <v>0.96930000000000005</v>
       </c>
       <c r="J10" s="51">
-        <v>0.77480000000000004</v>
+        <v>0.14549999999999999</v>
       </c>
       <c r="K10" s="51">
-        <v>0.79279999999999995</v>
+        <v>0.1394</v>
       </c>
       <c r="L10" s="51">
-        <v>0.91779999999999995</v>
+        <v>0.47320000000000001</v>
       </c>
       <c r="M10" s="51">
-        <v>0.82330000000000003</v>
+        <v>0.17749999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -87253,28 +86132,28 @@
         <v>8</v>
       </c>
       <c r="F11" s="48">
-        <v>0.82230000000000003</v>
+        <v>0.92759999999999998</v>
       </c>
       <c r="G11" s="48">
-        <v>0.82940000000000003</v>
+        <v>0.96740000000000004</v>
       </c>
       <c r="H11" s="48">
-        <v>0.9889</v>
+        <v>0.98709999999999998</v>
       </c>
       <c r="I11" s="48">
-        <v>0.98580000000000001</v>
+        <v>0.96930000000000005</v>
       </c>
       <c r="J11" s="51">
-        <v>0.77480000000000004</v>
+        <v>0.14549999999999999</v>
       </c>
       <c r="K11" s="51">
-        <v>0.79279999999999995</v>
+        <v>0.1394</v>
       </c>
       <c r="L11" s="51">
-        <v>0.91779999999999995</v>
+        <v>0.47320000000000001</v>
       </c>
       <c r="M11" s="51">
-        <v>0.82330000000000003</v>
+        <v>0.17749999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -87285,28 +86164,28 @@
         <v>1902</v>
       </c>
       <c r="F12" s="48">
-        <v>0.2084</v>
+        <v>0.21429999999999999</v>
       </c>
       <c r="G12" s="48">
-        <v>0.16320000000000001</v>
+        <v>0.1729</v>
       </c>
       <c r="H12" s="48">
-        <v>0.41520000000000001</v>
+        <v>0.1084</v>
       </c>
       <c r="I12" s="48">
-        <v>0.59160000000000001</v>
+        <v>0.2485</v>
       </c>
       <c r="J12" s="51">
-        <v>0.60199999999999998</v>
+        <v>0.1467</v>
       </c>
       <c r="K12" s="51">
-        <v>0.49049999999999999</v>
+        <v>0.1399</v>
       </c>
       <c r="L12" s="51">
-        <v>0.62019999999999997</v>
+        <v>0.44750000000000001</v>
       </c>
       <c r="M12" s="51">
-        <v>0.58409999999999995</v>
+        <v>0.15720000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -87314,28 +86193,28 @@
         <v>0</v>
       </c>
       <c r="F13" s="48">
-        <v>0.34289999999999998</v>
+        <v>0.60209999999999997</v>
       </c>
       <c r="G13" s="48">
-        <v>0.25629999999999997</v>
+        <v>0.70789999999999997</v>
       </c>
       <c r="H13" s="48">
-        <v>0.77039999999999997</v>
+        <v>0.3488</v>
       </c>
       <c r="I13" s="48">
-        <v>0.80079999999999996</v>
+        <v>0.38019999999999998</v>
       </c>
       <c r="J13" s="51">
-        <v>0.60199999999999998</v>
+        <v>0.1467</v>
       </c>
       <c r="K13" s="51">
-        <v>0.49049999999999999</v>
+        <v>0.1399</v>
       </c>
       <c r="L13" s="51">
-        <v>0.62019999999999997</v>
+        <v>0.44750000000000001</v>
       </c>
       <c r="M13" s="51">
-        <v>0.58409999999999995</v>
+        <v>0.15720000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -87343,28 +86222,28 @@
         <v>1</v>
       </c>
       <c r="F14" s="48">
-        <v>0.41310000000000002</v>
+        <v>0.87209999999999999</v>
       </c>
       <c r="G14" s="48">
-        <v>0.31190000000000001</v>
+        <v>0.92820000000000003</v>
       </c>
       <c r="H14" s="48">
-        <v>0.83699999999999997</v>
+        <v>0.88439999999999996</v>
       </c>
       <c r="I14" s="48">
-        <v>0.85189999999999999</v>
+        <v>0.85619999999999996</v>
       </c>
       <c r="J14" s="51">
-        <v>0.60199999999999998</v>
+        <v>0.1467</v>
       </c>
       <c r="K14" s="51">
-        <v>0.49049999999999999</v>
+        <v>0.1399</v>
       </c>
       <c r="L14" s="51">
-        <v>0.62019999999999997</v>
+        <v>0.44750000000000001</v>
       </c>
       <c r="M14" s="51">
-        <v>0.58409999999999995</v>
+        <v>0.15720000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -87372,28 +86251,28 @@
         <v>2</v>
       </c>
       <c r="F15" s="48">
-        <v>0.4657</v>
+        <v>0.89370000000000005</v>
       </c>
       <c r="G15" s="48">
-        <v>0.36070000000000002</v>
+        <v>0.94479999999999997</v>
       </c>
       <c r="H15" s="48">
-        <v>0.86639999999999995</v>
+        <v>0.92759999999999998</v>
       </c>
       <c r="I15" s="48">
-        <v>0.88800000000000001</v>
+        <v>0.94130000000000003</v>
       </c>
       <c r="J15" s="51">
-        <v>0.60199999999999998</v>
+        <v>0.1467</v>
       </c>
       <c r="K15" s="51">
-        <v>0.49049999999999999</v>
+        <v>0.1399</v>
       </c>
       <c r="L15" s="51">
-        <v>0.62019999999999997</v>
+        <v>0.44750000000000001</v>
       </c>
       <c r="M15" s="51">
-        <v>0.58409999999999995</v>
+        <v>0.15720000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -87401,28 +86280,28 @@
         <v>3</v>
       </c>
       <c r="F16" s="48">
-        <v>0.50380000000000003</v>
+        <v>0.90529999999999999</v>
       </c>
       <c r="G16" s="48">
-        <v>0.39750000000000002</v>
+        <v>0.95240000000000002</v>
       </c>
       <c r="H16" s="48">
-        <v>0.88449999999999995</v>
+        <v>0.95389999999999997</v>
       </c>
       <c r="I16" s="48">
-        <v>0.90900000000000003</v>
+        <v>0.95550000000000002</v>
       </c>
       <c r="J16" s="51">
-        <v>0.60199999999999998</v>
+        <v>0.1467</v>
       </c>
       <c r="K16" s="51">
-        <v>0.49049999999999999</v>
+        <v>0.1399</v>
       </c>
       <c r="L16" s="51">
-        <v>0.62019999999999997</v>
+        <v>0.44750000000000001</v>
       </c>
       <c r="M16" s="51">
-        <v>0.58409999999999995</v>
+        <v>0.15720000000000001</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
@@ -87430,28 +86309,28 @@
         <v>4</v>
       </c>
       <c r="F17" s="48">
-        <v>0.53410000000000002</v>
+        <v>0.9133</v>
       </c>
       <c r="G17" s="48">
-        <v>0.43030000000000002</v>
+        <v>0.95420000000000005</v>
       </c>
       <c r="H17" s="48">
-        <v>0.89810000000000001</v>
+        <v>0.9647</v>
       </c>
       <c r="I17" s="48">
-        <v>0.92449999999999999</v>
+        <v>0.96350000000000002</v>
       </c>
       <c r="J17" s="51">
-        <v>0.60199999999999998</v>
+        <v>0.1467</v>
       </c>
       <c r="K17" s="51">
-        <v>0.49049999999999999</v>
+        <v>0.1399</v>
       </c>
       <c r="L17" s="51">
-        <v>0.62019999999999997</v>
+        <v>0.44750000000000001</v>
       </c>
       <c r="M17" s="51">
-        <v>0.58409999999999995</v>
+        <v>0.15720000000000001</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -87459,28 +86338,28 @@
         <v>5</v>
       </c>
       <c r="F18" s="48">
-        <v>0.55930000000000002</v>
+        <v>0.91810000000000003</v>
       </c>
       <c r="G18" s="48">
-        <v>0.45789999999999997</v>
+        <v>0.96009999999999995</v>
       </c>
       <c r="H18" s="48">
-        <v>0.91349999999999998</v>
+        <v>0.96960000000000002</v>
       </c>
       <c r="I18" s="48">
-        <v>0.94199999999999995</v>
+        <v>0.96679999999999999</v>
       </c>
       <c r="J18" s="51">
-        <v>0.60199999999999998</v>
+        <v>0.1467</v>
       </c>
       <c r="K18" s="51">
-        <v>0.49049999999999999</v>
+        <v>0.1399</v>
       </c>
       <c r="L18" s="51">
-        <v>0.62019999999999997</v>
+        <v>0.44750000000000001</v>
       </c>
       <c r="M18" s="51">
-        <v>0.58409999999999995</v>
+        <v>0.15720000000000001</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -87488,28 +86367,28 @@
         <v>6</v>
       </c>
       <c r="F19" s="48">
-        <v>0.58479999999999999</v>
+        <v>0.92259999999999998</v>
       </c>
       <c r="G19" s="48">
-        <v>0.48620000000000002</v>
+        <v>0.96140000000000003</v>
       </c>
       <c r="H19" s="48">
-        <v>0.92300000000000004</v>
+        <v>0.9758</v>
       </c>
       <c r="I19" s="48">
-        <v>0.9536</v>
+        <v>0.96679999999999999</v>
       </c>
       <c r="J19" s="51">
-        <v>0.60199999999999998</v>
+        <v>0.1467</v>
       </c>
       <c r="K19" s="51">
-        <v>0.49049999999999999</v>
+        <v>0.1399</v>
       </c>
       <c r="L19" s="51">
-        <v>0.62019999999999997</v>
+        <v>0.44750000000000001</v>
       </c>
       <c r="M19" s="51">
-        <v>0.58409999999999995</v>
+        <v>0.15720000000000001</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
@@ -87517,28 +86396,28 @@
         <v>7</v>
       </c>
       <c r="F20" s="48">
-        <v>0.60599999999999998</v>
+        <v>0.92420000000000002</v>
       </c>
       <c r="G20" s="48">
-        <v>0.51549999999999996</v>
+        <v>0.96609999999999996</v>
       </c>
       <c r="H20" s="48">
-        <v>0.93</v>
+        <v>0.98170000000000002</v>
       </c>
       <c r="I20" s="48">
-        <v>0.96030000000000004</v>
+        <v>0.96809999999999996</v>
       </c>
       <c r="J20" s="51">
-        <v>0.60199999999999998</v>
+        <v>0.1467</v>
       </c>
       <c r="K20" s="51">
-        <v>0.49049999999999999</v>
+        <v>0.1399</v>
       </c>
       <c r="L20" s="51">
-        <v>0.62019999999999997</v>
+        <v>0.44750000000000001</v>
       </c>
       <c r="M20" s="51">
-        <v>0.58409999999999995</v>
+        <v>0.15720000000000001</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
@@ -87546,28 +86425,28 @@
         <v>8</v>
       </c>
       <c r="F21" s="48">
-        <v>0.62619999999999998</v>
+        <v>0.92720000000000002</v>
       </c>
       <c r="G21" s="48">
-        <v>0.53910000000000002</v>
+        <v>0.96709999999999996</v>
       </c>
       <c r="H21" s="48">
-        <v>0.93679999999999997</v>
+        <v>0.98280000000000001</v>
       </c>
       <c r="I21" s="48">
-        <v>0.96560000000000001</v>
+        <v>0.96809999999999996</v>
       </c>
       <c r="J21" s="51">
-        <v>0.60199999999999998</v>
+        <v>0.1467</v>
       </c>
       <c r="K21" s="51">
-        <v>0.49049999999999999</v>
+        <v>0.1399</v>
       </c>
       <c r="L21" s="51">
-        <v>0.62019999999999997</v>
+        <v>0.44750000000000001</v>
       </c>
       <c r="M21" s="51">
-        <v>0.58409999999999995</v>
+        <v>0.15720000000000001</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
@@ -87578,28 +86457,28 @@
         <v>1903</v>
       </c>
       <c r="F22" s="48">
-        <v>0.26850000000000002</v>
+        <v>0.1376</v>
       </c>
       <c r="G22" s="48">
-        <v>0.21929999999999999</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="H22" s="48">
-        <v>0.38030000000000003</v>
+        <v>6.1600000000000002E-2</v>
       </c>
       <c r="I22" s="48">
-        <v>0.61339999999999995</v>
+        <v>0.1162</v>
       </c>
       <c r="J22" s="51">
-        <v>0.59819999999999995</v>
+        <v>0.1043</v>
       </c>
       <c r="K22" s="51">
-        <v>0.4869</v>
+        <v>0.1409</v>
       </c>
       <c r="L22" s="51">
-        <v>0.70330000000000004</v>
+        <v>0.49230000000000002</v>
       </c>
       <c r="M22" s="51">
-        <v>0.63959999999999995</v>
+        <v>0.1162</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
@@ -87607,28 +86486,28 @@
         <v>0</v>
       </c>
       <c r="F23" s="48">
-        <v>0.44140000000000001</v>
+        <v>0.69259999999999999</v>
       </c>
       <c r="G23" s="48">
-        <v>0.32719999999999999</v>
+        <v>0.79269999999999996</v>
       </c>
       <c r="H23" s="48">
-        <v>0.81950000000000001</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="I23" s="48">
-        <v>0.84079999999999999</v>
+        <v>0.2303</v>
       </c>
       <c r="J23" s="51">
-        <v>0.59819999999999995</v>
+        <v>0.1043</v>
       </c>
       <c r="K23" s="51">
-        <v>0.4869</v>
+        <v>0.1409</v>
       </c>
       <c r="L23" s="51">
-        <v>0.70330000000000004</v>
+        <v>0.49230000000000002</v>
       </c>
       <c r="M23" s="51">
-        <v>0.63959999999999995</v>
+        <v>0.1162</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
@@ -87636,28 +86515,28 @@
         <v>1</v>
       </c>
       <c r="F24" s="48">
-        <v>0.51259999999999994</v>
+        <v>0.8679</v>
       </c>
       <c r="G24" s="48">
-        <v>0.38800000000000001</v>
+        <v>0.95120000000000005</v>
       </c>
       <c r="H24" s="48">
-        <v>0.87739999999999996</v>
+        <v>0.91779999999999995</v>
       </c>
       <c r="I24" s="48">
-        <v>0.88449999999999995</v>
+        <v>0.84209999999999996</v>
       </c>
       <c r="J24" s="51">
-        <v>0.59819999999999995</v>
+        <v>0.1043</v>
       </c>
       <c r="K24" s="51">
-        <v>0.4869</v>
+        <v>0.1409</v>
       </c>
       <c r="L24" s="51">
-        <v>0.70330000000000004</v>
+        <v>0.49230000000000002</v>
       </c>
       <c r="M24" s="51">
-        <v>0.63959999999999995</v>
+        <v>0.1162</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
@@ -87665,28 +86544,28 @@
         <v>2</v>
       </c>
       <c r="F25" s="48">
-        <v>0.56089999999999995</v>
+        <v>0.88460000000000005</v>
       </c>
       <c r="G25" s="48">
-        <v>0.43469999999999998</v>
+        <v>0.95930000000000004</v>
       </c>
       <c r="H25" s="48">
-        <v>0.9012</v>
+        <v>0.95289999999999997</v>
       </c>
       <c r="I25" s="48">
-        <v>0.91339999999999999</v>
+        <v>0.93420000000000003</v>
       </c>
       <c r="J25" s="51">
-        <v>0.59819999999999995</v>
+        <v>0.1043</v>
       </c>
       <c r="K25" s="51">
-        <v>0.4869</v>
+        <v>0.1409</v>
       </c>
       <c r="L25" s="51">
-        <v>0.70330000000000004</v>
+        <v>0.49230000000000002</v>
       </c>
       <c r="M25" s="51">
-        <v>0.63959999999999995</v>
+        <v>0.1162</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
@@ -87694,28 +86573,28 @@
         <v>3</v>
       </c>
       <c r="F26" s="48">
-        <v>0.59419999999999995</v>
+        <v>0.89349999999999996</v>
       </c>
       <c r="G26" s="48">
-        <v>0.46970000000000001</v>
+        <v>0.96609999999999996</v>
       </c>
       <c r="H26" s="48">
-        <v>0.91569999999999996</v>
+        <v>0.97260000000000002</v>
       </c>
       <c r="I26" s="48">
-        <v>0.92959999999999998</v>
+        <v>0.95609999999999995</v>
       </c>
       <c r="J26" s="51">
-        <v>0.59819999999999995</v>
+        <v>0.1043</v>
       </c>
       <c r="K26" s="51">
-        <v>0.4869</v>
+        <v>0.1409</v>
       </c>
       <c r="L26" s="51">
-        <v>0.70330000000000004</v>
+        <v>0.49230000000000002</v>
       </c>
       <c r="M26" s="51">
-        <v>0.63959999999999995</v>
+        <v>0.1162</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
@@ -87723,28 +86602,28 @@
         <v>4</v>
       </c>
       <c r="F27" s="48">
-        <v>0.61719999999999997</v>
+        <v>0.90010000000000001</v>
       </c>
       <c r="G27" s="48">
-        <v>0.50180000000000002</v>
+        <v>0.96879999999999999</v>
       </c>
       <c r="H27" s="48">
-        <v>0.92820000000000003</v>
+        <v>0.98119999999999996</v>
       </c>
       <c r="I27" s="48">
-        <v>0.94359999999999999</v>
+        <v>0.9627</v>
       </c>
       <c r="J27" s="51">
-        <v>0.59819999999999995</v>
+        <v>0.1043</v>
       </c>
       <c r="K27" s="51">
-        <v>0.4869</v>
+        <v>0.1409</v>
       </c>
       <c r="L27" s="51">
-        <v>0.70330000000000004</v>
+        <v>0.49230000000000002</v>
       </c>
       <c r="M27" s="51">
-        <v>0.63959999999999995</v>
+        <v>0.1162</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
@@ -87752,28 +86631,28 @@
         <v>5</v>
       </c>
       <c r="F28" s="48">
-        <v>0.63870000000000005</v>
+        <v>0.90459999999999996</v>
       </c>
       <c r="G28" s="48">
-        <v>0.52890000000000004</v>
+        <v>0.97560000000000002</v>
       </c>
       <c r="H28" s="48">
-        <v>0.93979999999999997</v>
+        <v>0.98460000000000003</v>
       </c>
       <c r="I28" s="48">
-        <v>0.95489999999999997</v>
+        <v>0.96489999999999998</v>
       </c>
       <c r="J28" s="51">
-        <v>0.59819999999999995</v>
+        <v>0.1043</v>
       </c>
       <c r="K28" s="51">
-        <v>0.4869</v>
+        <v>0.1409</v>
       </c>
       <c r="L28" s="51">
-        <v>0.70330000000000004</v>
+        <v>0.49230000000000002</v>
       </c>
       <c r="M28" s="51">
-        <v>0.63959999999999995</v>
+        <v>0.1162</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
@@ -87781,28 +86660,28 @@
         <v>6</v>
       </c>
       <c r="F29" s="48">
-        <v>0.65610000000000002</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="G29" s="48">
-        <v>0.55940000000000001</v>
+        <v>0.97829999999999995</v>
       </c>
       <c r="H29" s="48">
-        <v>0.94630000000000003</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="I29" s="48">
-        <v>0.96660000000000001</v>
+        <v>0.96489999999999998</v>
       </c>
       <c r="J29" s="51">
-        <v>0.59819999999999995</v>
+        <v>0.1043</v>
       </c>
       <c r="K29" s="51">
-        <v>0.4869</v>
+        <v>0.1409</v>
       </c>
       <c r="L29" s="51">
-        <v>0.70330000000000004</v>
+        <v>0.49230000000000002</v>
       </c>
       <c r="M29" s="51">
-        <v>0.63959999999999995</v>
+        <v>0.1162</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
@@ -87810,28 +86689,28 @@
         <v>7</v>
       </c>
       <c r="F30" s="48">
-        <v>0.67410000000000003</v>
+        <v>0.91010000000000002</v>
       </c>
       <c r="G30" s="48">
-        <v>0.59009999999999996</v>
+        <v>0.98240000000000005</v>
       </c>
       <c r="H30" s="48">
-        <v>0.95140000000000002</v>
+        <v>0.99060000000000004</v>
       </c>
       <c r="I30" s="48">
-        <v>0.97109999999999996</v>
+        <v>0.96709999999999996</v>
       </c>
       <c r="J30" s="51">
-        <v>0.59819999999999995</v>
+        <v>0.1043</v>
       </c>
       <c r="K30" s="51">
-        <v>0.4869</v>
+        <v>0.1409</v>
       </c>
       <c r="L30" s="51">
-        <v>0.70330000000000004</v>
+        <v>0.49230000000000002</v>
       </c>
       <c r="M30" s="51">
-        <v>0.63959999999999995</v>
+        <v>0.1162</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
@@ -87839,28 +86718,28 @@
         <v>8</v>
       </c>
       <c r="F31" s="48">
-        <v>0.69089999999999996</v>
+        <v>0.91339999999999999</v>
       </c>
       <c r="G31" s="48">
-        <v>0.61399999999999999</v>
+        <v>0.98240000000000005</v>
       </c>
       <c r="H31" s="48">
-        <v>0.95750000000000002</v>
+        <v>0.99060000000000004</v>
       </c>
       <c r="I31" s="48">
-        <v>0.97609999999999997</v>
+        <v>0.96709999999999996</v>
       </c>
       <c r="J31" s="51">
-        <v>0.59819999999999995</v>
+        <v>0.1043</v>
       </c>
       <c r="K31" s="51">
-        <v>0.4869</v>
+        <v>0.1409</v>
       </c>
       <c r="L31" s="51">
-        <v>0.70330000000000004</v>
+        <v>0.49230000000000002</v>
       </c>
       <c r="M31" s="51">
-        <v>0.63959999999999995</v>
+        <v>0.1162</v>
       </c>
     </row>
   </sheetData>
